--- a/PSM_Analysis/propensity_scores.xlsx
+++ b/PSM_Analysis/propensity_scores.xlsx
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8173462000332722</v>
+        <v>0.8096654108417702</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3768049792203352</v>
+        <v>0.4228664448994353</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3811227793349697</v>
+        <v>0.3196736734927995</v>
       </c>
     </row>
     <row r="5">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9641091961958576</v>
+        <v>0.9743304385477314</v>
       </c>
     </row>
     <row r="6">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4101217840131231</v>
+        <v>0.2927491885604656</v>
       </c>
     </row>
     <row r="7">
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8849520060590313</v>
+        <v>0.925480803078756</v>
       </c>
     </row>
     <row r="8">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4891403424799634</v>
+        <v>0.595845804286514</v>
       </c>
     </row>
     <row r="9">
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.365456070696232</v>
+        <v>0.3247807225239759</v>
       </c>
     </row>
     <row r="10">
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7260923081019921</v>
+        <v>0.7864737313179416</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.3171818615206007</v>
+        <v>0.2851000132398643</v>
       </c>
     </row>
     <row r="12">
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.4822737683327452</v>
+        <v>0.4327250356272176</v>
       </c>
     </row>
     <row r="13">
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.2599552490184595</v>
+        <v>0.3121245758535675</v>
       </c>
     </row>
     <row r="14">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.2976354141708935</v>
+        <v>0.3956239589501496</v>
       </c>
     </row>
     <row r="15">
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.1420277327415475</v>
+        <v>0.3573442463042486</v>
       </c>
     </row>
     <row r="16">
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.25743243092777</v>
+        <v>0.3086162950268181</v>
       </c>
     </row>
     <row r="17">
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.2721724456767213</v>
+        <v>0.4909766673580687</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.5720827864731185</v>
+        <v>0.6141352884455955</v>
       </c>
     </row>
     <row r="19">
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.2848655451907289</v>
+        <v>0.2907829097141513</v>
       </c>
     </row>
     <row r="20">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.3435214477397227</v>
+        <v>0.3695806293968797</v>
       </c>
     </row>
     <row r="21">
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.4266301266604363</v>
+        <v>0.4192206933338406</v>
       </c>
     </row>
     <row r="22">
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.2295907756584178</v>
+        <v>0.3367025900683853</v>
       </c>
     </row>
     <row r="23">
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.8090309044474298</v>
+        <v>0.847004797913651</v>
       </c>
     </row>
     <row r="24">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.4671438607416168</v>
+        <v>0.3655243078941953</v>
       </c>
     </row>
     <row r="25">
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.3106428572715988</v>
+        <v>0.4024015232333751</v>
       </c>
     </row>
     <row r="26">
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.4031238156366553</v>
+        <v>0.5079710856681964</v>
       </c>
     </row>
     <row r="27">
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.374605780331918</v>
+        <v>0.3428324624203213</v>
       </c>
     </row>
     <row r="28">
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.148616681051944</v>
+        <v>0.2779192763786286</v>
       </c>
     </row>
     <row r="29">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.3909857658139979</v>
+        <v>0.4918616616553092</v>
       </c>
     </row>
     <row r="30">
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.1516145266122794</v>
+        <v>0.3207375402009383</v>
       </c>
     </row>
     <row r="31">
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.6764900792068878</v>
+        <v>0.585935201079246</v>
       </c>
     </row>
     <row r="32">
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.9862312791691096</v>
+        <v>0.9774319462437021</v>
       </c>
     </row>
     <row r="33">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.3309766363674941</v>
+        <v>0.3579101638208648</v>
       </c>
     </row>
     <row r="34">
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.8321215050272512</v>
+        <v>0.7893759177059939</v>
       </c>
     </row>
     <row r="35">
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.1778789324538204</v>
+        <v>0.3108623681722694</v>
       </c>
     </row>
     <row r="36">
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.3684578688330198</v>
+        <v>0.4078400836629101</v>
       </c>
     </row>
     <row r="37">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.689946010113622</v>
+        <v>0.5664604502234055</v>
       </c>
     </row>
     <row r="38">
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.3355668165931009</v>
+        <v>0.3184732329906921</v>
       </c>
     </row>
     <row r="39">
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.8588704353664229</v>
+        <v>0.8927171273300263</v>
       </c>
     </row>
     <row r="40">
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.5167195510879644</v>
+        <v>0.5568742555266135</v>
       </c>
     </row>
     <row r="41">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.6693232993021011</v>
+        <v>0.6165315819970709</v>
       </c>
     </row>
     <row r="42">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.3940388306286788</v>
+        <v>0.2735766864100379</v>
       </c>
     </row>
     <row r="43">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.204986258911747</v>
+        <v>0.2382588394133412</v>
       </c>
     </row>
     <row r="44">
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.7607973217283732</v>
+        <v>0.6581726710272117</v>
       </c>
     </row>
     <row r="45">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.3773382009489468</v>
+        <v>0.3610940020076129</v>
       </c>
     </row>
     <row r="46">
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.3010445955338716</v>
+        <v>0.3827702782897701</v>
       </c>
     </row>
     <row r="47">
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.6035414638245523</v>
+        <v>0.5350144767294663</v>
       </c>
     </row>
     <row r="48">
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.6891715703463251</v>
+        <v>0.6376035484244333</v>
       </c>
     </row>
     <row r="49">
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.2444267359609275</v>
+        <v>0.216264486262157</v>
       </c>
     </row>
     <row r="50">
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.6506604951975654</v>
+        <v>0.6107765572197943</v>
       </c>
     </row>
     <row r="51">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.3884673289476389</v>
+        <v>0.3862784693348595</v>
       </c>
     </row>
     <row r="52">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.3835924244901743</v>
+        <v>0.3502519433871629</v>
       </c>
     </row>
     <row r="53">
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.8343024979440891</v>
+        <v>0.6670166863463695</v>
       </c>
     </row>
     <row r="54">
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.6197300151364065</v>
+        <v>0.6145040617553749</v>
       </c>
     </row>
     <row r="55">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.6281574550229211</v>
+        <v>0.6406269134129988</v>
       </c>
     </row>
     <row r="56">
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.319043540188095</v>
+        <v>0.3306523287240634</v>
       </c>
     </row>
     <row r="57">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.380347666634766</v>
+        <v>0.4343880145711648</v>
       </c>
     </row>
     <row r="58">
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.7697520696513712</v>
+        <v>0.6910714194820322</v>
       </c>
     </row>
     <row r="59">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.3662892870042135</v>
+        <v>0.3190669459895624</v>
       </c>
     </row>
     <row r="60">
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.3304527408679984</v>
+        <v>0.354118603438387</v>
       </c>
     </row>
     <row r="61">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.2446649443529467</v>
+        <v>0.4029250248494561</v>
       </c>
     </row>
     <row r="62">
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.2335082778064383</v>
+        <v>0.5062153565062252</v>
       </c>
     </row>
     <row r="63">
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.1966632282961252</v>
+        <v>0.2923641715031575</v>
       </c>
     </row>
     <row r="64">
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.4183643860283994</v>
+        <v>0.4040508892150536</v>
       </c>
     </row>
     <row r="65">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.3729520867257611</v>
+        <v>0.2676266421205286</v>
       </c>
     </row>
     <row r="66">
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.407985835769912</v>
+        <v>0.3688551032731772</v>
       </c>
     </row>
     <row r="67">
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.4141820169388095</v>
+        <v>0.4074300763791418</v>
       </c>
     </row>
     <row r="68">
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.3685735538222124</v>
+        <v>0.3776577547265189</v>
       </c>
     </row>
     <row r="69">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.4011809117824675</v>
+        <v>0.36740862422057</v>
       </c>
     </row>
     <row r="70">
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.329537184875985</v>
+        <v>0.3315676438046251</v>
       </c>
     </row>
     <row r="71">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.1589524835196581</v>
+        <v>0.4030828700037525</v>
       </c>
     </row>
     <row r="72">
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.2715591373357134</v>
+        <v>0.3305373306095024</v>
       </c>
     </row>
     <row r="73">
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.7633200063342046</v>
+        <v>0.6822696789854598</v>
       </c>
     </row>
     <row r="74">
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.4266371402188387</v>
+        <v>0.3638944380995853</v>
       </c>
     </row>
     <row r="75">
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.3098222363883615</v>
+        <v>0.2792525489614825</v>
       </c>
     </row>
     <row r="76">
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.3295301786200268</v>
+        <v>0.3337974862492132</v>
       </c>
     </row>
     <row r="77">
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.2430102280527658</v>
+        <v>0.3666086634609331</v>
       </c>
     </row>
     <row r="78">
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.9392182167355819</v>
+        <v>0.9437473157915223</v>
       </c>
     </row>
     <row r="79">
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.2505497307029692</v>
+        <v>0.2142198137021409</v>
       </c>
     </row>
     <row r="80">
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.5168400107277523</v>
+        <v>0.4503622425582976</v>
       </c>
     </row>
     <row r="81">
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.1203370915799696</v>
+        <v>0.2801943597848507</v>
       </c>
     </row>
     <row r="82">
@@ -7414,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.3810193901961196</v>
+        <v>0.3796976060305295</v>
       </c>
     </row>
     <row r="83">
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.6596307244344675</v>
+        <v>0.7333302055809905</v>
       </c>
     </row>
     <row r="84">
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.1494457511373136</v>
+        <v>0.3266886369021627</v>
       </c>
     </row>
     <row r="85">
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.5697002684827946</v>
+        <v>0.4774029384801278</v>
       </c>
     </row>
     <row r="86">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="AB86" t="n">
-        <v>0.379777058601577</v>
+        <v>0.3921808432132019</v>
       </c>
     </row>
     <row r="87">
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AB87" t="n">
-        <v>0.336740942354671</v>
+        <v>0.3545392524367033</v>
       </c>
     </row>
     <row r="88">
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="AB88" t="n">
-        <v>0.3703445993904264</v>
+        <v>0.3599936577472838</v>
       </c>
     </row>
     <row r="89">
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="AB89" t="n">
-        <v>0.3520395763151611</v>
+        <v>0.3830970569947831</v>
       </c>
     </row>
     <row r="90">
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="AB90" t="n">
-        <v>0.6411959300284414</v>
+        <v>0.4920835888491375</v>
       </c>
     </row>
     <row r="91">
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="AB91" t="n">
-        <v>0.7847425370452863</v>
+        <v>0.6577967298203278</v>
       </c>
     </row>
     <row r="92">
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="AB92" t="n">
-        <v>0.6885984106458147</v>
+        <v>0.5337383308057522</v>
       </c>
     </row>
     <row r="93">
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="AB93" t="n">
-        <v>0.2935036633769914</v>
+        <v>0.3040954623029095</v>
       </c>
     </row>
     <row r="94">
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="AB94" t="n">
-        <v>0.3358007666947319</v>
+        <v>0.2912668484138451</v>
       </c>
     </row>
     <row r="95">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="AB95" t="n">
-        <v>0.4367340829745346</v>
+        <v>0.4316608160852422</v>
       </c>
     </row>
     <row r="96">
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="AB96" t="n">
-        <v>0.472315266014515</v>
+        <v>0.3791443731169613</v>
       </c>
     </row>
     <row r="97">
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AB97" t="n">
-        <v>0.8440416383529438</v>
+        <v>0.8321406029295618</v>
       </c>
     </row>
     <row r="98">
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="AB98" t="n">
-        <v>0.4888100476495421</v>
+        <v>0.4306063380786264</v>
       </c>
     </row>
     <row r="99">
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="AB99" t="n">
-        <v>0.6424428967302566</v>
+        <v>0.5186316070781934</v>
       </c>
     </row>
     <row r="100">
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="AB100" t="n">
-        <v>0.1437017769637478</v>
+        <v>0.2992640704824825</v>
       </c>
     </row>
     <row r="101">
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AB101" t="n">
-        <v>0.3117476644887982</v>
+        <v>0.3208975380767707</v>
       </c>
     </row>
     <row r="102">
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="AB102" t="n">
-        <v>0.3686887923741778</v>
+        <v>0.3221011742370853</v>
       </c>
     </row>
     <row r="103">
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="AB103" t="n">
-        <v>0.3359084323084275</v>
+        <v>0.3504588520954487</v>
       </c>
     </row>
     <row r="104">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="AB104" t="n">
-        <v>0.2296174218215934</v>
+        <v>0.2708907328670914</v>
       </c>
     </row>
     <row r="105">
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="AB105" t="n">
-        <v>0.3114912628613107</v>
+        <v>0.3524113797710717</v>
       </c>
     </row>
     <row r="106">
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="AB106" t="n">
-        <v>0.1867270618204675</v>
+        <v>0.2970190291996261</v>
       </c>
     </row>
     <row r="107">
@@ -9534,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="AB107" t="n">
-        <v>0.8366090374002225</v>
+        <v>0.730801121904105</v>
       </c>
     </row>
     <row r="108">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="AB108" t="n">
-        <v>0.3898137248991556</v>
+        <v>0.3772503461280324</v>
       </c>
     </row>
     <row r="109">
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="AB109" t="n">
-        <v>0.3337490810091809</v>
+        <v>0.3267873509224634</v>
       </c>
     </row>
     <row r="110">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="AB110" t="n">
-        <v>0.470150599549103</v>
+        <v>0.3920220189758724</v>
       </c>
     </row>
     <row r="111">
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="AB111" t="n">
-        <v>0.364596052980641</v>
+        <v>0.3645564542588817</v>
       </c>
     </row>
     <row r="112">
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="AB112" t="n">
-        <v>0.2068479869654443</v>
+        <v>0.2486695325369093</v>
       </c>
     </row>
     <row r="113">
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="AB113" t="n">
-        <v>0.1127005748163775</v>
+        <v>0.3005491729620864</v>
       </c>
     </row>
     <row r="114">
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="AB114" t="n">
-        <v>0.8219495626076719</v>
+        <v>0.7448533452921073</v>
       </c>
     </row>
     <row r="115">
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="AB115" t="n">
-        <v>0.215786190295651</v>
+        <v>0.3038411219475252</v>
       </c>
     </row>
     <row r="116">
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="AB116" t="n">
-        <v>0.5330973940668355</v>
+        <v>0.4164590059295633</v>
       </c>
     </row>
     <row r="117">
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="AB117" t="n">
-        <v>0.5524249595517867</v>
+        <v>0.7102034374650297</v>
       </c>
     </row>
     <row r="118">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="AB118" t="n">
-        <v>0.4740769939963922</v>
+        <v>0.4125505568490023</v>
       </c>
     </row>
     <row r="119">
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="AB119" t="n">
-        <v>0.5930290076316872</v>
+        <v>0.4650364636450953</v>
       </c>
     </row>
     <row r="120">
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="AB120" t="n">
-        <v>0.3874581040509938</v>
+        <v>0.3543613515019728</v>
       </c>
     </row>
     <row r="121">
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="AB121" t="n">
-        <v>0.4115914941250824</v>
+        <v>0.3821161483080794</v>
       </c>
     </row>
     <row r="122">
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="AB122" t="n">
-        <v>0.2180471423103331</v>
+        <v>0.2850767017446359</v>
       </c>
     </row>
     <row r="123">
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="AB123" t="n">
-        <v>0.3861091008453745</v>
+        <v>0.3043094379872305</v>
       </c>
     </row>
     <row r="124">
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="AB124" t="n">
-        <v>0.6906862012470775</v>
+        <v>0.579995818664207</v>
       </c>
     </row>
     <row r="125">
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="AB125" t="n">
-        <v>0.3737041207753884</v>
+        <v>0.4460348951133709</v>
       </c>
     </row>
     <row r="126">
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="AB126" t="n">
-        <v>0.6100241305589137</v>
+        <v>0.5064949895225228</v>
       </c>
     </row>
     <row r="127">
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="AB127" t="n">
-        <v>0.2054478047372761</v>
+        <v>0.2981850747253507</v>
       </c>
     </row>
     <row r="128">
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="AB128" t="n">
-        <v>0.7981544014541322</v>
+        <v>0.7954350604620423</v>
       </c>
     </row>
     <row r="129">
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="AB129" t="n">
-        <v>0.4952662585326866</v>
+        <v>0.4393689717845006</v>
       </c>
     </row>
     <row r="130">
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="AB130" t="n">
-        <v>0.9142574236680322</v>
+        <v>0.8954528701741318</v>
       </c>
     </row>
     <row r="131">
@@ -11574,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="AB131" t="n">
-        <v>0.3573100612250658</v>
+        <v>0.3842932108450306</v>
       </c>
     </row>
     <row r="132">
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="AB132" t="n">
-        <v>0.3461136874722144</v>
+        <v>0.3876853168281181</v>
       </c>
     </row>
     <row r="133">
@@ -11744,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="AB133" t="n">
-        <v>0.5350422714982762</v>
+        <v>0.4125976451291421</v>
       </c>
     </row>
     <row r="134">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="AB134" t="n">
-        <v>0.9666895356805971</v>
+        <v>0.9928107774775962</v>
       </c>
     </row>
     <row r="135">
@@ -11916,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="AB135" t="n">
-        <v>0.4609904960576564</v>
+        <v>0.322158745290612</v>
       </c>
     </row>
     <row r="136">
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="AB136" t="n">
-        <v>0.538142226381053</v>
+        <v>0.5544719237390217</v>
       </c>
     </row>
     <row r="137">
@@ -12086,7 +12086,7 @@
         <v>0</v>
       </c>
       <c r="AB137" t="n">
-        <v>0.6032380601490713</v>
+        <v>0.512671404603382</v>
       </c>
     </row>
     <row r="138">
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="AB138" t="n">
-        <v>0.4722846153787529</v>
+        <v>0.4059118791133847</v>
       </c>
     </row>
     <row r="139">
@@ -12258,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="AB139" t="n">
-        <v>0.3312009140172018</v>
+        <v>0.4542896672389045</v>
       </c>
     </row>
     <row r="140">
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="AB140" t="n">
-        <v>0.321504607698341</v>
+        <v>0.3152863042216826</v>
       </c>
     </row>
     <row r="141">
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="AB141" t="n">
-        <v>0.4157133985943317</v>
+        <v>0.4183926326315403</v>
       </c>
     </row>
     <row r="142">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="AB142" t="n">
-        <v>0.5480745172032501</v>
+        <v>0.4319624750432851</v>
       </c>
     </row>
     <row r="143">
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AB143" t="n">
-        <v>0.5366817036530311</v>
+        <v>0.4350294540924396</v>
       </c>
     </row>
     <row r="144">
@@ -12682,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="AB144" t="n">
-        <v>0.3839309267865892</v>
+        <v>0.4449997276222643</v>
       </c>
     </row>
     <row r="145">
@@ -12768,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="AB145" t="n">
-        <v>0.6535346116745194</v>
+        <v>0.5860582705737426</v>
       </c>
     </row>
     <row r="146">
@@ -12852,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="AB146" t="n">
-        <v>0.3940714790459249</v>
+        <v>0.416612023722461</v>
       </c>
     </row>
     <row r="147">
@@ -12938,7 +12938,7 @@
         <v>0</v>
       </c>
       <c r="AB147" t="n">
-        <v>0.1575768268514829</v>
+        <v>0.3438497864836382</v>
       </c>
     </row>
     <row r="148">
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="AB148" t="n">
-        <v>0.8086841972992153</v>
+        <v>0.8328010442583518</v>
       </c>
     </row>
     <row r="149">
@@ -13104,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="AB149" t="n">
-        <v>0.2973183365228502</v>
+        <v>0.2715222068310919</v>
       </c>
     </row>
     <row r="150">
@@ -13188,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="AB150" t="n">
-        <v>0.3894351192480393</v>
+        <v>0.3918216504255149</v>
       </c>
     </row>
     <row r="151">
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="AB151" t="n">
-        <v>0.5834585271888036</v>
+        <v>0.4235661208204678</v>
       </c>
     </row>
     <row r="152">
@@ -13356,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="AB152" t="n">
-        <v>0.32142390013436</v>
+        <v>0.3163119822441537</v>
       </c>
     </row>
     <row r="153">
@@ -13436,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="AB153" t="n">
-        <v>0.3033184056845205</v>
+        <v>0.3048194827989243</v>
       </c>
     </row>
     <row r="154">
@@ -13522,7 +13522,7 @@
         <v>0</v>
       </c>
       <c r="AB154" t="n">
-        <v>0.5801100678228412</v>
+        <v>0.5110404666628906</v>
       </c>
     </row>
     <row r="155">
@@ -13606,7 +13606,7 @@
         <v>0</v>
       </c>
       <c r="AB155" t="n">
-        <v>0.7314278054809498</v>
+        <v>0.6516551057954224</v>
       </c>
     </row>
     <row r="156">
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
       <c r="AB156" t="n">
-        <v>0.6079735741647361</v>
+        <v>0.5010880836063176</v>
       </c>
     </row>
     <row r="157">
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="AB157" t="n">
-        <v>0.6516215155659545</v>
+        <v>0.6126179358213744</v>
       </c>
     </row>
     <row r="158">
@@ -13860,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="AB158" t="n">
-        <v>0.4283417552558393</v>
+        <v>0.3440821541682186</v>
       </c>
     </row>
     <row r="159">
@@ -13944,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="AB159" t="n">
-        <v>0.3490951403244663</v>
+        <v>0.3336030017761443</v>
       </c>
     </row>
     <row r="160">
@@ -14030,7 +14030,7 @@
         <v>0</v>
       </c>
       <c r="AB160" t="n">
-        <v>0.646927382004736</v>
+        <v>0.479040935703874</v>
       </c>
     </row>
     <row r="161">
@@ -14114,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="AB161" t="n">
-        <v>0.1370146575941492</v>
+        <v>0.3671874640782776</v>
       </c>
     </row>
     <row r="162">
@@ -14198,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="AB162" t="n">
-        <v>0.5435160578394882</v>
+        <v>0.6728690200855837</v>
       </c>
     </row>
     <row r="163">
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="AB163" t="n">
-        <v>0.5819836192208281</v>
+        <v>0.5379718773385412</v>
       </c>
     </row>
     <row r="164">
@@ -14368,7 +14368,7 @@
         <v>0</v>
       </c>
       <c r="AB164" t="n">
-        <v>0.8619300223735447</v>
+        <v>0.7813702093474955</v>
       </c>
     </row>
     <row r="165">
@@ -14454,7 +14454,7 @@
         <v>0</v>
       </c>
       <c r="AB165" t="n">
-        <v>0.3801400304147788</v>
+        <v>0.5171162429451582</v>
       </c>
     </row>
     <row r="166">
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="AB166" t="n">
-        <v>0.4111283593276571</v>
+        <v>0.3854236372464514</v>
       </c>
     </row>
     <row r="167">
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="AB167" t="n">
-        <v>0.3932395375740889</v>
+        <v>0.3729964415330324</v>
       </c>
     </row>
     <row r="168">
@@ -14710,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="AB168" t="n">
-        <v>0.4277297993378002</v>
+        <v>0.4360335229685751</v>
       </c>
     </row>
     <row r="169">
@@ -14794,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="AB169" t="n">
-        <v>0.2945829624794099</v>
+        <v>0.3161675041011411</v>
       </c>
     </row>
     <row r="170">
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AB170" t="n">
-        <v>0.3072717327663349</v>
+        <v>0.3521461286081015</v>
       </c>
     </row>
     <row r="171">
@@ -14962,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="AB171" t="n">
-        <v>0.4826104616248351</v>
+        <v>0.38433706419165</v>
       </c>
     </row>
     <row r="172">
@@ -15048,7 +15048,7 @@
         <v>0</v>
       </c>
       <c r="AB172" t="n">
-        <v>0.3326495920868097</v>
+        <v>0.3914247487979043</v>
       </c>
     </row>
     <row r="173">
@@ -15134,7 +15134,7 @@
         <v>0</v>
       </c>
       <c r="AB173" t="n">
-        <v>0.3221033316464909</v>
+        <v>0.4371019782967627</v>
       </c>
     </row>
     <row r="174">
@@ -15220,7 +15220,7 @@
         <v>0</v>
       </c>
       <c r="AB174" t="n">
-        <v>0.7468862778973656</v>
+        <v>0.642547761797411</v>
       </c>
     </row>
     <row r="175">
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="AB175" t="n">
-        <v>0.3764870400724407</v>
+        <v>0.337002852444874</v>
       </c>
     </row>
     <row r="176">
@@ -15390,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="AB176" t="n">
-        <v>0.5190356052647671</v>
+        <v>0.5469449397756897</v>
       </c>
     </row>
     <row r="177">
@@ -15474,7 +15474,7 @@
         <v>0</v>
       </c>
       <c r="AB177" t="n">
-        <v>0.1574217800009965</v>
+        <v>0.2720495787262148</v>
       </c>
     </row>
     <row r="178">
@@ -15560,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="AB178" t="n">
-        <v>0.5321893912905067</v>
+        <v>0.3248069081261447</v>
       </c>
     </row>
     <row r="179">
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="AB179" t="n">
-        <v>0.2713711596251069</v>
+        <v>0.2911705459582676</v>
       </c>
     </row>
     <row r="180">
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="AB180" t="n">
-        <v>0.3037599916990064</v>
+        <v>0.3600239117037419</v>
       </c>
     </row>
     <row r="181">
@@ -15812,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="AB181" t="n">
-        <v>0.5889086120814283</v>
+        <v>0.4264637027164086</v>
       </c>
     </row>
     <row r="182">
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="AB182" t="n">
-        <v>0.2239579904700239</v>
+        <v>0.2975335577816375</v>
       </c>
     </row>
     <row r="183">
@@ -15980,7 +15980,7 @@
         <v>0</v>
       </c>
       <c r="AB183" t="n">
-        <v>0.1781126162125575</v>
+        <v>0.3283141960121714</v>
       </c>
     </row>
     <row r="184">
@@ -16066,7 +16066,7 @@
         <v>0</v>
       </c>
       <c r="AB184" t="n">
-        <v>0.3011020484740152</v>
+        <v>0.361921581713798</v>
       </c>
     </row>
     <row r="185">
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="AB185" t="n">
-        <v>0.3700620466542826</v>
+        <v>0.3335944258650415</v>
       </c>
     </row>
     <row r="186">
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="AB186" t="n">
-        <v>0.4453301695863325</v>
+        <v>0.3820397432852379</v>
       </c>
     </row>
     <row r="187">
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="AB187" t="n">
-        <v>0.3666304492317935</v>
+        <v>0.3759802366336758</v>
       </c>
     </row>
     <row r="188">
@@ -16402,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="AB188" t="n">
-        <v>0.7037723600060878</v>
+        <v>0.6064505532842305</v>
       </c>
     </row>
     <row r="189">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="AB189" t="n">
-        <v>0.4687727786723674</v>
+        <v>0.3312500443492191</v>
       </c>
     </row>
     <row r="190">
@@ -16568,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="AB190" t="n">
-        <v>0.4967783697603274</v>
+        <v>0.6160282370847007</v>
       </c>
     </row>
     <row r="191">
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="AB191" t="n">
-        <v>0.3842881886039434</v>
+        <v>0.4533278551013084</v>
       </c>
     </row>
     <row r="192">
@@ -16738,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="AB192" t="n">
-        <v>0.3062678117544445</v>
+        <v>0.3605996432654699</v>
       </c>
     </row>
     <row r="193">
@@ -16824,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="AB193" t="n">
-        <v>0.7373957634510643</v>
+        <v>0.4982713488924247</v>
       </c>
     </row>
     <row r="194">
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="AB194" t="n">
-        <v>0.5619868067821912</v>
+        <v>0.5161539974737953</v>
       </c>
     </row>
     <row r="195">
@@ -16988,7 +16988,7 @@
         <v>0</v>
       </c>
       <c r="AB195" t="n">
-        <v>0.4844495344642044</v>
+        <v>0.44350145552279</v>
       </c>
     </row>
     <row r="196">
@@ -17074,7 +17074,7 @@
         <v>0</v>
       </c>
       <c r="AB196" t="n">
-        <v>0.1520543397324067</v>
+        <v>0.3051690368111342</v>
       </c>
     </row>
     <row r="197">
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="AB197" t="n">
-        <v>0.5107448100874207</v>
+        <v>0.5658558878569856</v>
       </c>
     </row>
     <row r="198">
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="AB198" t="n">
-        <v>0.3191550921299323</v>
+        <v>0.4213004201343221</v>
       </c>
     </row>
     <row r="199">
@@ -17330,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="AB199" t="n">
-        <v>0.7074205706004435</v>
+        <v>0.6462125651542625</v>
       </c>
     </row>
     <row r="200">
@@ -17414,7 +17414,7 @@
         <v>0</v>
       </c>
       <c r="AB200" t="n">
-        <v>0.3111399045243747</v>
+        <v>0.2973956823272103</v>
       </c>
     </row>
     <row r="201">
@@ -17498,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="AB201" t="n">
-        <v>0.340417742774428</v>
+        <v>0.4217805438368263</v>
       </c>
     </row>
     <row r="202">
@@ -17582,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="AB202" t="n">
-        <v>0.2888238361002006</v>
+        <v>0.3616177887946437</v>
       </c>
     </row>
     <row r="203">
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="AB203" t="n">
-        <v>0.449066454596559</v>
+        <v>0.4205818003519163</v>
       </c>
     </row>
     <row r="204">
@@ -17752,7 +17752,7 @@
         <v>0</v>
       </c>
       <c r="AB204" t="n">
-        <v>0.2959508747734376</v>
+        <v>0.3658476838731917</v>
       </c>
     </row>
     <row r="205">
@@ -17832,7 +17832,7 @@
         <v>0</v>
       </c>
       <c r="AB205" t="n">
-        <v>0.5426091608932018</v>
+        <v>0.4901234090419757</v>
       </c>
     </row>
     <row r="206">
@@ -17918,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="AB206" t="n">
-        <v>0.2885028657571836</v>
+        <v>0.3372236707179801</v>
       </c>
     </row>
     <row r="207">
@@ -18002,7 +18002,7 @@
         <v>0</v>
       </c>
       <c r="AB207" t="n">
-        <v>0.2138573567468551</v>
+        <v>0.2719529660610953</v>
       </c>
     </row>
     <row r="208">
@@ -18088,7 +18088,7 @@
         <v>0</v>
       </c>
       <c r="AB208" t="n">
-        <v>0.7744449224112561</v>
+        <v>0.7073155711544569</v>
       </c>
     </row>
     <row r="209">
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
       <c r="AB209" t="n">
-        <v>0.4910858243365312</v>
+        <v>0.4376344192429651</v>
       </c>
     </row>
     <row r="210">
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="AB210" t="n">
-        <v>0.5991787628229512</v>
+        <v>0.6075269194069369</v>
       </c>
     </row>
     <row r="211">
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="AB211" t="n">
-        <v>0.2704759338569971</v>
+        <v>0.3595147418392177</v>
       </c>
     </row>
     <row r="212">
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
       <c r="AB212" t="n">
-        <v>0.3392965880423603</v>
+        <v>0.3570919868204639</v>
       </c>
     </row>
     <row r="213">
@@ -18512,7 +18512,7 @@
         <v>0</v>
       </c>
       <c r="AB213" t="n">
-        <v>0.3944129312647325</v>
+        <v>0.3472558649097193</v>
       </c>
     </row>
     <row r="214">
@@ -18596,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="AB214" t="n">
-        <v>0.6231442533717013</v>
+        <v>0.6596887266687642</v>
       </c>
     </row>
     <row r="215">
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="AB215" t="n">
-        <v>0.380826044049298</v>
+        <v>0.3583403828096682</v>
       </c>
     </row>
     <row r="216">
@@ -18764,7 +18764,7 @@
         <v>0</v>
       </c>
       <c r="AB216" t="n">
-        <v>0.3994651078106987</v>
+        <v>0.3734180987993717</v>
       </c>
     </row>
     <row r="217">
@@ -18832,7 +18832,7 @@
         <v>0</v>
       </c>
       <c r="AB217" t="n">
-        <v>0.3835852990599773</v>
+        <v>0.3954154769738704</v>
       </c>
     </row>
     <row r="218">
@@ -18896,7 +18896,7 @@
         <v>0</v>
       </c>
       <c r="AB218" t="n">
-        <v>0.5170883486316407</v>
+        <v>0.4697080493351409</v>
       </c>
     </row>
     <row r="219">
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="AB219" t="n">
-        <v>0.3583926936834925</v>
+        <v>0.3547668362088474</v>
       </c>
     </row>
     <row r="220">
@@ -19032,7 +19032,7 @@
         <v>0</v>
       </c>
       <c r="AB220" t="n">
-        <v>0.3601538939454882</v>
+        <v>0.3497415989081596</v>
       </c>
     </row>
     <row r="221">
@@ -19100,7 +19100,7 @@
         <v>0</v>
       </c>
       <c r="AB221" t="n">
-        <v>0.3445523962484314</v>
+        <v>0.3342849408637269</v>
       </c>
     </row>
     <row r="222">
@@ -19168,7 +19168,7 @@
         <v>0</v>
       </c>
       <c r="AB222" t="n">
-        <v>0.3997932458136361</v>
+        <v>0.4413580403082762</v>
       </c>
     </row>
     <row r="223">
@@ -19236,7 +19236,7 @@
         <v>0</v>
       </c>
       <c r="AB223" t="n">
-        <v>0.3618790946518307</v>
+        <v>0.3639808378313583</v>
       </c>
     </row>
     <row r="224">
@@ -19304,7 +19304,7 @@
         <v>0</v>
       </c>
       <c r="AB224" t="n">
-        <v>0.5827389435927747</v>
+        <v>0.6112667827799468</v>
       </c>
     </row>
     <row r="225">
@@ -19372,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="AB225" t="n">
-        <v>0.3559175784870388</v>
+        <v>0.3416529218367523</v>
       </c>
     </row>
     <row r="226">
@@ -19436,7 +19436,7 @@
         <v>0</v>
       </c>
       <c r="AB226" t="n">
-        <v>0.5489199465261432</v>
+        <v>0.5274332452811998</v>
       </c>
     </row>
     <row r="227">
@@ -19504,7 +19504,7 @@
         <v>0</v>
       </c>
       <c r="AB227" t="n">
-        <v>0.3625468186725265</v>
+        <v>0.3900099372091481</v>
       </c>
     </row>
     <row r="228">
@@ -19572,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="AB228" t="n">
-        <v>0.4991679750576513</v>
+        <v>0.4301877064392713</v>
       </c>
     </row>
     <row r="229">
@@ -19638,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="AB229" t="n">
-        <v>0.3529721237335061</v>
+        <v>0.3336993017194747</v>
       </c>
     </row>
     <row r="230">
@@ -19706,7 +19706,7 @@
         <v>0</v>
       </c>
       <c r="AB230" t="n">
-        <v>0.3787899672671795</v>
+        <v>0.3884906532266744</v>
       </c>
     </row>
     <row r="231">
@@ -19774,7 +19774,7 @@
         <v>0</v>
       </c>
       <c r="AB231" t="n">
-        <v>0.3640769492208184</v>
+        <v>0.3875661292149595</v>
       </c>
     </row>
     <row r="232">
@@ -19842,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="AB232" t="n">
-        <v>0.4162781738422648</v>
+        <v>0.2968171002660452</v>
       </c>
     </row>
     <row r="233">
@@ -19906,7 +19906,7 @@
         <v>0</v>
       </c>
       <c r="AB233" t="n">
-        <v>0.3772150387646325</v>
+        <v>0.3881317692687248</v>
       </c>
     </row>
     <row r="234">
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
       <c r="AB234" t="n">
-        <v>0.6802648300673725</v>
+        <v>0.8569344903774969</v>
       </c>
     </row>
     <row r="235">
@@ -20038,7 +20038,7 @@
         <v>0</v>
       </c>
       <c r="AB235" t="n">
-        <v>0.6300515533716313</v>
+        <v>0.6876095890614932</v>
       </c>
     </row>
     <row r="236">
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="AB236" t="n">
-        <v>0.4646723834142794</v>
+        <v>0.3950437541943191</v>
       </c>
     </row>
     <row r="237">
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="AB237" t="n">
-        <v>0.4189323194697923</v>
+        <v>0.3005291630460983</v>
       </c>
     </row>
     <row r="238">
@@ -20242,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="AB238" t="n">
-        <v>0.4653095913696039</v>
+        <v>0.3807220315364475</v>
       </c>
     </row>
     <row r="239">
@@ -20310,7 +20310,7 @@
         <v>0</v>
       </c>
       <c r="AB239" t="n">
-        <v>0.3564217807257961</v>
+        <v>0.3664375468793865</v>
       </c>
     </row>
     <row r="240">
@@ -20378,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="AB240" t="n">
-        <v>0.3742055655813531</v>
+        <v>0.4064265876286161</v>
       </c>
     </row>
     <row r="241">
@@ -20442,7 +20442,7 @@
         <v>0</v>
       </c>
       <c r="AB241" t="n">
-        <v>0.5575398153409002</v>
+        <v>0.5445308835023563</v>
       </c>
     </row>
     <row r="242">
@@ -20510,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="AB242" t="n">
-        <v>0.4259951642047832</v>
+        <v>0.4737386591582946</v>
       </c>
     </row>
     <row r="243">
@@ -20578,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="AB243" t="n">
-        <v>0.3838525319873808</v>
+        <v>0.4216236368835108</v>
       </c>
     </row>
     <row r="244">
@@ -20646,7 +20646,7 @@
         <v>0</v>
       </c>
       <c r="AB244" t="n">
-        <v>0.4105826770380659</v>
+        <v>0.2853759162181138</v>
       </c>
     </row>
     <row r="245">
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
       <c r="AB245" t="n">
-        <v>0.4498529383706055</v>
+        <v>0.3523242643583372</v>
       </c>
     </row>
     <row r="246">
@@ -20774,7 +20774,7 @@
         <v>0</v>
       </c>
       <c r="AB246" t="n">
-        <v>0.5567564130867387</v>
+        <v>0.5436497545701499</v>
       </c>
     </row>
     <row r="247">
@@ -20838,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="AB247" t="n">
-        <v>0.395152241730355</v>
+        <v>0.4159337089672935</v>
       </c>
     </row>
     <row r="248">
@@ -20906,7 +20906,7 @@
         <v>0</v>
       </c>
       <c r="AB248" t="n">
-        <v>0.4562673127250872</v>
+        <v>0.3640562713040189</v>
       </c>
     </row>
     <row r="249">
@@ -20974,7 +20974,7 @@
         <v>0</v>
       </c>
       <c r="AB249" t="n">
-        <v>0.332440471887651</v>
+        <v>0.3084955442737136</v>
       </c>
     </row>
     <row r="250">
@@ -21042,7 +21042,7 @@
         <v>0</v>
       </c>
       <c r="AB250" t="n">
-        <v>0.4272671615365563</v>
+        <v>0.3142340148320286</v>
       </c>
     </row>
     <row r="251">
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="AB251" t="n">
-        <v>0.6020131151681012</v>
+        <v>0.6442400825520554</v>
       </c>
     </row>
     <row r="252">
@@ -21174,7 +21174,7 @@
         <v>0</v>
       </c>
       <c r="AB252" t="n">
-        <v>0.3963017949490272</v>
+        <v>0.4322093775417911</v>
       </c>
     </row>
     <row r="253">
@@ -21242,7 +21242,7 @@
         <v>0</v>
       </c>
       <c r="AB253" t="n">
-        <v>0.5469391016926056</v>
+        <v>0.7097059074855585</v>
       </c>
     </row>
     <row r="254">
@@ -21310,7 +21310,7 @@
         <v>0</v>
       </c>
       <c r="AB254" t="n">
-        <v>0.4450078468441199</v>
+        <v>0.355687806100967</v>
       </c>
     </row>
     <row r="255">
@@ -21378,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="AB255" t="n">
-        <v>0.4194577320626994</v>
+        <v>0.5019388674828286</v>
       </c>
     </row>
     <row r="256">
@@ -21446,7 +21446,7 @@
         <v>0</v>
       </c>
       <c r="AB256" t="n">
-        <v>0.3935468721005821</v>
+        <v>0.4471277298063952</v>
       </c>
     </row>
     <row r="257">
@@ -21514,7 +21514,7 @@
         <v>0</v>
       </c>
       <c r="AB257" t="n">
-        <v>0.3309291679287372</v>
+        <v>0.2982563278919946</v>
       </c>
     </row>
     <row r="258">
@@ -21582,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="AB258" t="n">
-        <v>0.3411467165612082</v>
+        <v>0.332583517571372</v>
       </c>
     </row>
     <row r="259">
@@ -21646,7 +21646,7 @@
         <v>0</v>
       </c>
       <c r="AB259" t="n">
-        <v>0.3628314150050412</v>
+        <v>0.354584882905872</v>
       </c>
     </row>
     <row r="260">
@@ -21710,7 +21710,7 @@
         <v>0</v>
       </c>
       <c r="AB260" t="n">
-        <v>0.4071140119121204</v>
+        <v>0.4348390326603184</v>
       </c>
     </row>
     <row r="261">
@@ -21778,7 +21778,7 @@
         <v>0</v>
       </c>
       <c r="AB261" t="n">
-        <v>0.3299276027598049</v>
+        <v>0.298005354181852</v>
       </c>
     </row>
     <row r="262">
@@ -21842,7 +21842,7 @@
         <v>0</v>
       </c>
       <c r="AB262" t="n">
-        <v>0.6349153644359696</v>
+        <v>0.6877934828676362</v>
       </c>
     </row>
     <row r="263">
@@ -21910,7 +21910,7 @@
         <v>0</v>
       </c>
       <c r="AB263" t="n">
-        <v>0.3521308119053599</v>
+        <v>0.3395545533479197</v>
       </c>
     </row>
     <row r="264">
@@ -21978,7 +21978,7 @@
         <v>0</v>
       </c>
       <c r="AB264" t="n">
-        <v>0.3850143567992458</v>
+        <v>0.4143124410735651</v>
       </c>
     </row>
     <row r="265">
@@ -22042,7 +22042,7 @@
         <v>0</v>
       </c>
       <c r="AB265" t="n">
-        <v>0.5781861527856467</v>
+        <v>0.5944202197835047</v>
       </c>
     </row>
     <row r="266">
@@ -22106,7 +22106,7 @@
         <v>0</v>
       </c>
       <c r="AB266" t="n">
-        <v>0.4807299628133942</v>
+        <v>0.4096587713608245</v>
       </c>
     </row>
     <row r="267">
@@ -22174,7 +22174,7 @@
         <v>0</v>
       </c>
       <c r="AB267" t="n">
-        <v>0.3720168069680979</v>
+        <v>0.3930589319228627</v>
       </c>
     </row>
     <row r="268">
@@ -22242,7 +22242,7 @@
         <v>0</v>
       </c>
       <c r="AB268" t="n">
-        <v>0.4926159897096938</v>
+        <v>0.4317900163973685</v>
       </c>
     </row>
     <row r="269">
@@ -22310,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="AB269" t="n">
-        <v>0.4187212875925289</v>
+        <v>0.4959760160968489</v>
       </c>
     </row>
     <row r="270">
@@ -22378,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="AB270" t="n">
-        <v>0.3376488995028099</v>
+        <v>0.3146401670729816</v>
       </c>
     </row>
     <row r="271">
@@ -22442,7 +22442,7 @@
         <v>0</v>
       </c>
       <c r="AB271" t="n">
-        <v>0.4205910005929623</v>
+        <v>0.4674990125378404</v>
       </c>
     </row>
     <row r="272">
@@ -22506,7 +22506,7 @@
         <v>0</v>
       </c>
       <c r="AB272" t="n">
-        <v>0.5736058824661764</v>
+        <v>0.583502150959754</v>
       </c>
     </row>
     <row r="273">
@@ -22574,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="AB273" t="n">
-        <v>0.3424742187569715</v>
+        <v>0.330509864255003</v>
       </c>
     </row>
     <row r="274">
@@ -22638,7 +22638,7 @@
         <v>0</v>
       </c>
       <c r="AB274" t="n">
-        <v>0.4005212785347466</v>
+        <v>0.4265969776946009</v>
       </c>
     </row>
     <row r="275">
@@ -22706,7 +22706,7 @@
         <v>0</v>
       </c>
       <c r="AB275" t="n">
-        <v>0.3447540453095094</v>
+        <v>0.3325386957817935</v>
       </c>
     </row>
     <row r="276">
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="AB276" t="n">
-        <v>0.4909165781315575</v>
+        <v>0.4251080133325786</v>
       </c>
     </row>
     <row r="277">
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="AB277" t="n">
-        <v>0.5100901007211084</v>
+        <v>0.4649461840967279</v>
       </c>
     </row>
     <row r="278">
@@ -22898,7 +22898,7 @@
         <v>0</v>
       </c>
       <c r="AB278" t="n">
-        <v>0.4633516113832016</v>
+        <v>0.5524957907962919</v>
       </c>
     </row>
     <row r="279">
@@ -22966,7 +22966,7 @@
         <v>0</v>
       </c>
       <c r="AB279" t="n">
-        <v>0.5931866747508372</v>
+        <v>0.6259607577951413</v>
       </c>
     </row>
     <row r="280">
@@ -23030,7 +23030,7 @@
         <v>0</v>
       </c>
       <c r="AB280" t="n">
-        <v>0.4613569977177967</v>
+        <v>0.3726438343835647</v>
       </c>
     </row>
     <row r="281">
@@ -23094,7 +23094,7 @@
         <v>0</v>
       </c>
       <c r="AB281" t="n">
-        <v>0.6889800549055403</v>
+        <v>0.7751321882788559</v>
       </c>
     </row>
     <row r="282">
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="AB282" t="n">
-        <v>0.3493500000706461</v>
+        <v>0.3503112850269197</v>
       </c>
     </row>
     <row r="283">
@@ -23230,7 +23230,7 @@
         <v>0</v>
       </c>
       <c r="AB283" t="n">
-        <v>0.3551867969625851</v>
+        <v>0.3408010235027449</v>
       </c>
     </row>
     <row r="284">
@@ -23298,7 +23298,7 @@
         <v>0</v>
       </c>
       <c r="AB284" t="n">
-        <v>0.3674631649508923</v>
+        <v>0.3739407063396772</v>
       </c>
     </row>
     <row r="285">
@@ -23366,7 +23366,7 @@
         <v>0</v>
       </c>
       <c r="AB285" t="n">
-        <v>0.4612514045037842</v>
+        <v>0.3708767409334641</v>
       </c>
     </row>
     <row r="286">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="AB286" t="n">
-        <v>0.5134829777508433</v>
+        <v>0.4818372126454314</v>
       </c>
     </row>
   </sheetData>
